--- a/Labworks/Lab_03/Implement_DHCPv4/addressing table.xlsx
+++ b/Labworks/Lab_03/Implement_DHCPv4/addressing table.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\NetEngineer\Labworks\Lab_03\Implement_DHCPv4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="19995" windowHeight="7815"/>
   </bookViews>
@@ -27,9 +32,6 @@
     <t>net addr</t>
   </si>
   <si>
-    <t>1sr IP</t>
-  </si>
-  <si>
     <t>Last IP</t>
   </si>
   <si>
@@ -169,13 +171,16 @@
   </si>
   <si>
     <t>192.168.1.98</t>
+  </si>
+  <si>
+    <t>1st IP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,9 +349,6 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -401,6 +403,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,6 +413,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -454,7 +467,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -486,9 +499,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -520,6 +534,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -695,326 +710,326 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="21.7109375" style="2" customWidth="1"/>
+    <col min="3" max="7" width="21.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3">
         <v>58</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>28</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" thickBot="1"/>
-    <row r="8" spans="1:7" ht="27" thickBot="1">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="4" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="27" thickBot="1">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="7" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A10" s="8" t="s">
+      <c r="C10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="C14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="27" customHeight="1" thickBot="1">
-      <c r="A11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A14" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="13" t="s">
+      <c r="C15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A15" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="20" t="s">
+      <c r="B16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" thickBot="1">
-      <c r="A16" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A17" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="13" t="s">
+      <c r="E17" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A18" s="17" t="s">
+      <c r="B18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A19" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>47</v>
+      <c r="D19" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1027,24 +1042,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
